--- a/data/Vic ATSI employment.xlsx
+++ b/data/Vic ATSI employment.xlsx
@@ -423,7 +423,7 @@
         <v>0.03921687689577547</v>
       </c>
       <c r="D3">
-        <v>0.6556681215089411</v>
+        <v>0.655668121508941</v>
       </c>
       <c r="E3">
         <v>0.6154466743357178</v>
@@ -480,7 +480,7 @@
         <v>0.04469260431196075</v>
       </c>
       <c r="D6">
-        <v>0.6879977724821083</v>
+        <v>0.6879977724821082</v>
       </c>
       <c r="E6">
         <v>0.6532539361015071</v>
@@ -559,7 +559,7 @@
         <v>0.7635163237963432</v>
       </c>
       <c r="E10">
-        <v>0.7362742124727068</v>
+        <v>0.7362742124727067</v>
       </c>
     </row>
     <row r="11">
@@ -673,7 +673,7 @@
         <v>0.5412029118781726</v>
       </c>
       <c r="E16">
-        <v>0.5364561051659355</v>
+        <v>0.5364561051659354</v>
       </c>
     </row>
     <row r="17">
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.03117262458917309</v>
+        <v>0.03117262458917308</v>
       </c>
       <c r="D19">
         <v>0.703835685924326</v>
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>0.03827214903749261</v>
+        <v>0.0382721490374926</v>
       </c>
       <c r="D20">
         <v>0.7253735316689739</v>
@@ -974,7 +974,7 @@
         <v>0.03467580041669197</v>
       </c>
       <c r="D32">
-        <v>0.7449968571805558</v>
+        <v>0.7449968571805557</v>
       </c>
       <c r="E32">
         <v>0.716651901737268</v>
@@ -1202,7 +1202,7 @@
         <v>0.01418509443416551</v>
       </c>
       <c r="D44">
-        <v>0.5451851719558361</v>
+        <v>0.545185171955836</v>
       </c>
       <c r="E44">
         <v>0.5378881107339566</v>
@@ -1262,7 +1262,7 @@
         <v>0.6524535132043289</v>
       </c>
       <c r="E47">
-        <v>0.6390173529815481</v>
+        <v>0.639017352981548</v>
       </c>
     </row>
     <row r="48">
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>0.01250638232020717</v>
+        <v>0.01250638232020716</v>
       </c>
       <c r="D53">
         <v>0.8137253606275677</v>
@@ -1395,7 +1395,7 @@
         <v>0.7713560922086741</v>
       </c>
       <c r="E54">
-        <v>0.7897761225906848</v>
+        <v>0.7897761225906847</v>
       </c>
     </row>
     <row r="55">
@@ -1411,7 +1411,7 @@
         <v>0.04190881817400827</v>
       </c>
       <c r="D55">
-        <v>0.7023738391953786</v>
+        <v>0.7023738391953785</v>
       </c>
       <c r="E55">
         <v>0.6708837741613292</v>
@@ -1620,7 +1620,7 @@
         <v>0.02074734285570791</v>
       </c>
       <c r="D66">
-        <v>0.7375030434</v>
+        <v>0.7375030433999999</v>
       </c>
       <c r="E66">
         <v>0.7339534111725563</v>
@@ -1769,7 +1769,7 @@
         </is>
       </c>
       <c r="C74">
-        <v>0.07212207623794698</v>
+        <v>0.07212207623794697</v>
       </c>
       <c r="D74">
         <v>0.7467535650547762</v>
@@ -1832,7 +1832,7 @@
         <v>0.5619706524643383</v>
       </c>
       <c r="E77">
-        <v>0.5351516690298948</v>
+        <v>0.5351516690298947</v>
       </c>
     </row>
     <row r="78">
@@ -1981,7 +1981,7 @@
         <v>0.03640557751108536</v>
       </c>
       <c r="D85">
-        <v>0.699988181740893</v>
+        <v>0.6999881817408929</v>
       </c>
       <c r="E85">
         <v>0.6777197510790666</v>
@@ -2307,7 +2307,7 @@
         <v>0.7366234246962394</v>
       </c>
       <c r="E102">
-        <v>0.7556993898602678</v>
+        <v>0.7556993898602677</v>
       </c>
     </row>
     <row r="103">
@@ -2358,7 +2358,7 @@
         </is>
       </c>
       <c r="C105">
-        <v>0.04184028014495207</v>
+        <v>0.04184028014495206</v>
       </c>
       <c r="D105">
         <v>0.7081823658276588</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="C107">
-        <v>0.07317521079728157</v>
+        <v>0.07317521079728156</v>
       </c>
       <c r="D107">
         <v>0.695141415192149</v>
@@ -2440,7 +2440,7 @@
         <v>0.5648811760089271</v>
       </c>
       <c r="E109">
-        <v>0.4776875407217781</v>
+        <v>0.477687540721778</v>
       </c>
     </row>
     <row r="110">
@@ -2532,7 +2532,7 @@
         <v>0.1716729238215447</v>
       </c>
       <c r="D114">
-        <v>0.5356263925985672</v>
+        <v>0.5356263925985671</v>
       </c>
       <c r="E114">
         <v>0.4582319411162062</v>
@@ -2681,7 +2681,7 @@
         </is>
       </c>
       <c r="C122">
-        <v>0.03938895146482589</v>
+        <v>0.03938895146482588</v>
       </c>
       <c r="D122">
         <v>0.6301863598353354</v>
@@ -2801,7 +2801,7 @@
         <v>0.6346579531182293</v>
       </c>
       <c r="E128">
-        <v>0.52454175258245</v>
+        <v>0.5245417525824499</v>
       </c>
     </row>
     <row r="129">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="C131">
-        <v>0.06782923353926131</v>
+        <v>0.0678292335392613</v>
       </c>
       <c r="D131">
         <v>0.6690311113310442</v>
@@ -3121,7 +3121,7 @@
         <v>0.04951523012410898</v>
       </c>
       <c r="D145">
-        <v>0.6086012742085764</v>
+        <v>0.6086012742085763</v>
       </c>
       <c r="E145">
         <v>0.5729185218825824</v>
@@ -3137,7 +3137,7 @@
         </is>
       </c>
       <c r="C146">
-        <v>0.04403046617189999</v>
+        <v>0.04403046617189998</v>
       </c>
       <c r="D146">
         <v>0.6625556903295613</v>
@@ -3314,7 +3314,7 @@
         <v>0.5649021607324887</v>
       </c>
       <c r="E155">
-        <v>0.5165741045092726</v>
+        <v>0.5165741045092725</v>
       </c>
     </row>
     <row r="156">
@@ -3365,7 +3365,7 @@
         </is>
       </c>
       <c r="C158">
-        <v>0.1378914422386836</v>
+        <v>0.1378914422386835</v>
       </c>
       <c r="D158">
         <v>0.5579276540216983</v>
@@ -3406,7 +3406,7 @@
         <v>0.04112901816059219</v>
       </c>
       <c r="D160">
-        <v>0.6247909408416436</v>
+        <v>0.6247909408416435</v>
       </c>
       <c r="E160">
         <v>0.6000197217045986</v>
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="C161">
-        <v>0.03913546377846573</v>
+        <v>0.03913546377846572</v>
       </c>
       <c r="D161">
-        <v>0.7742320102566233</v>
+        <v>0.7742320102566232</v>
       </c>
       <c r="E161">
         <v>0.7514019163113171</v>
@@ -3485,7 +3485,7 @@
         <v>0.7379172528864189</v>
       </c>
       <c r="E164">
-        <v>0.7048553899701096</v>
+        <v>0.7048553899701095</v>
       </c>
     </row>
     <row r="165">
@@ -3561,7 +3561,7 @@
         <v>0.7343817150560252</v>
       </c>
       <c r="E168">
-        <v>0.7524667672661815</v>
+        <v>0.7524667672661814</v>
       </c>
     </row>
     <row r="169">
@@ -3634,7 +3634,7 @@
         <v>0.02790674741174675</v>
       </c>
       <c r="D172">
-        <v>0.3668472569078528</v>
+        <v>0.3668472569078527</v>
       </c>
       <c r="E172">
         <v>0.3525494094736857</v>
@@ -3653,7 +3653,7 @@
         <v>0.07365323298771087</v>
       </c>
       <c r="D173">
-        <v>0.7029327178435672</v>
+        <v>0.7029327178435671</v>
       </c>
       <c r="E173">
         <v>0.6367663263990344</v>
@@ -3732,7 +3732,7 @@
         <v>0.6756250655448874</v>
       </c>
       <c r="E177">
-        <v>0.6166019064287514</v>
+        <v>0.6166019064287513</v>
       </c>
     </row>
     <row r="178">
@@ -3805,7 +3805,7 @@
         <v>0.01370036468781653</v>
       </c>
       <c r="D181">
-        <v>0.7287874394539377</v>
+        <v>0.7287874394539376</v>
       </c>
       <c r="E181">
         <v>0.7334879866159845</v>
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="C211">
-        <v>0.04690785899397301</v>
+        <v>0.046907858993973</v>
       </c>
       <c r="D211">
         <v>0.6042809872586659</v>
@@ -4492,7 +4492,7 @@
         <v>0.7026665780217388</v>
       </c>
       <c r="E217">
-        <v>0.6814091174398294</v>
+        <v>0.6814091174398293</v>
       </c>
     </row>
     <row r="218">
@@ -4505,7 +4505,7 @@
         </is>
       </c>
       <c r="C218">
-        <v>0.04301141081498811</v>
+        <v>0.0430114108149881</v>
       </c>
       <c r="D218">
         <v>0.7241686482776352</v>
@@ -5306,7 +5306,7 @@
         <v>0.1238123389430638</v>
       </c>
       <c r="D260">
-        <v>0.6323312158345738</v>
+        <v>0.6323312158345737</v>
       </c>
       <c r="E260">
         <v>0.5276569002353185</v>
@@ -5670,7 +5670,7 @@
         <v>0.5734074258323995</v>
       </c>
       <c r="E279">
-        <v>0.546103330402883</v>
+        <v>0.5461033304028829</v>
       </c>
     </row>
     <row r="280">
@@ -5705,7 +5705,7 @@
         <v>0.07648955358324669</v>
       </c>
       <c r="D281">
-        <v>0.4696469878918989</v>
+        <v>0.4696469878918988</v>
       </c>
       <c r="E281">
         <v>0.4111947522750292</v>
@@ -5898,7 +5898,7 @@
         <v>0.5190339323712703</v>
       </c>
       <c r="E291">
-        <v>0.4544732958987826</v>
+        <v>0.4544732958987825</v>
       </c>
     </row>
     <row r="292">
@@ -5914,10 +5914,10 @@
         <v>0.01593777750309536</v>
       </c>
       <c r="D292">
-        <v>0.6263401725769116</v>
+        <v>0.6263401725769115</v>
       </c>
       <c r="E292">
-        <v>0.6187729123642523</v>
+        <v>0.6187729123642522</v>
       </c>
     </row>
     <row r="293">
@@ -5936,7 +5936,7 @@
         <v>0.7752043199557311</v>
       </c>
       <c r="E293">
-        <v>0.7574902425430548</v>
+        <v>0.7574902425430547</v>
       </c>
     </row>
     <row r="294">
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="C306">
-        <v>0.05546986034113934</v>
+        <v>0.05546986034113933</v>
       </c>
       <c r="D306">
         <v>0.5704540030028441</v>
@@ -6275,7 +6275,7 @@
         <v>0.02376793551189119</v>
       </c>
       <c r="D311">
-        <v>0.6478679107412863</v>
+        <v>0.6478679107412862</v>
       </c>
       <c r="E311">
         <v>0.6359148484172708</v>
@@ -6294,7 +6294,7 @@
         <v>0.1374828578471929</v>
       </c>
       <c r="D312">
-        <v>0.53885196475794</v>
+        <v>0.5388519647579399</v>
       </c>
       <c r="E312">
         <v>0.4655335321262281</v>
@@ -6335,7 +6335,7 @@
         <v>0.7514352525717826</v>
       </c>
       <c r="E314">
-        <v>0.7372490864738917</v>
+        <v>0.7372490864738916</v>
       </c>
     </row>
     <row r="315">
@@ -6370,7 +6370,7 @@
         <v>0.06274635608718554</v>
       </c>
       <c r="D316">
-        <v>0.8067456280955671</v>
+        <v>0.806745628095567</v>
       </c>
       <c r="E316">
         <v>0.7470154206832936</v>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="C317">
-        <v>0.01009562880573215</v>
+        <v>0.01009562880573214</v>
       </c>
       <c r="D317">
         <v>0.8054777508833847</v>
@@ -6715,7 +6715,7 @@
         <v>0.5986280619073644</v>
       </c>
       <c r="E334">
-        <v>0.6134474824509572</v>
+        <v>0.6134474824509571</v>
       </c>
     </row>
     <row r="335">
@@ -6788,7 +6788,7 @@
         <v>0.05347461263888832</v>
       </c>
       <c r="D338">
-        <v>0.747497351652537</v>
+        <v>0.7474973516525369</v>
       </c>
       <c r="E338">
         <v>0.6983878590961135</v>
@@ -6804,7 +6804,7 @@
         </is>
       </c>
       <c r="C339">
-        <v>0.06053879256636995</v>
+        <v>0.06053879256636994</v>
       </c>
       <c r="D339">
         <v>0.5864114022334811</v>
@@ -6943,7 +6943,7 @@
         <v>0.5985583497760127</v>
       </c>
       <c r="E346">
-        <v>0.606105890437514</v>
+        <v>0.6061058904375139</v>
       </c>
     </row>
     <row r="347">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="C357">
-        <v>0.1619175581757242</v>
+        <v>0.1619175581757241</v>
       </c>
       <c r="D357">
         <v>0.534165460047777</v>
@@ -7285,7 +7285,7 @@
         <v>0.6281151646251953</v>
       </c>
       <c r="E364">
-        <v>0.5764916334146693</v>
+        <v>0.5764916334146692</v>
       </c>
     </row>
     <row r="365">
@@ -7304,7 +7304,7 @@
         <v>0.7676955252851125</v>
       </c>
       <c r="E365">
-        <v>0.8157355097749524</v>
+        <v>0.8157355097749523</v>
       </c>
     </row>
     <row r="366">
@@ -7570,7 +7570,7 @@
         <v>0.7631660403088626</v>
       </c>
       <c r="E379">
-        <v>0.7573511789700576</v>
+        <v>0.7573511789700575</v>
       </c>
     </row>
     <row r="380">
@@ -7931,7 +7931,7 @@
         <v>0.5460050262913855</v>
       </c>
       <c r="E398">
-        <v>0.5195792152528082</v>
+        <v>0.5195792152528081</v>
       </c>
     </row>
     <row r="399">
@@ -8406,7 +8406,7 @@
         <v>0.5265616251303977</v>
       </c>
       <c r="E423">
-        <v>0.4546167653956506</v>
+        <v>0.4546167653956505</v>
       </c>
     </row>
     <row r="424">
@@ -8495,7 +8495,7 @@
         </is>
       </c>
       <c r="C428">
-        <v>0.03488104723528755</v>
+        <v>0.03488104723528754</v>
       </c>
       <c r="D428">
         <v>0.7187494184808777</v>
@@ -8520,7 +8520,7 @@
         <v>0.5505077307873211</v>
       </c>
       <c r="E429">
-        <v>0.45995795954842</v>
+        <v>0.4599579595484199</v>
       </c>
     </row>
     <row r="430">
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="C438">
-        <v>0.07156159737142132</v>
+        <v>0.07156159737142131</v>
       </c>
       <c r="D438">
         <v>0.5621112777788201</v>
@@ -8935,7 +8935,7 @@
         <v>0.03210193802297894</v>
       </c>
       <c r="D451">
-        <v>0.637189969818098</v>
+        <v>0.6371899698180979</v>
       </c>
       <c r="E451">
         <v>0.6137907083548787</v>
@@ -9049,7 +9049,7 @@
         <v>0.0275764123434822</v>
       </c>
       <c r="D457">
-        <v>0.4885014661724093</v>
+        <v>0.4885014661724092</v>
       </c>
       <c r="E457">
         <v>0.4770200998869546</v>
@@ -9090,7 +9090,7 @@
         <v>0.7092721221392235</v>
       </c>
       <c r="E459">
-        <v>0.6685752721506219</v>
+        <v>0.6685752721506218</v>
       </c>
     </row>
     <row r="460">
@@ -9315,7 +9315,7 @@
         <v>0.07600461725462986</v>
       </c>
       <c r="D471">
-        <v>0.5864837126454942</v>
+        <v>0.5864837126454941</v>
       </c>
       <c r="E471">
         <v>0.5336560297697792</v>
@@ -9793,7 +9793,7 @@
         <v>0.59171048825117</v>
       </c>
       <c r="E496">
-        <v>0.5427258321280361</v>
+        <v>0.542725832128036</v>
       </c>
     </row>
     <row r="497">
@@ -9882,7 +9882,7 @@
         </is>
       </c>
       <c r="C501">
-        <v>0.03114739753274008</v>
+        <v>0.03114739753274007</v>
       </c>
       <c r="D501">
         <v>0.6796182232810073</v>
@@ -10227,7 +10227,7 @@
         <v>0.1044979460012187</v>
       </c>
       <c r="D519">
-        <v>0.5878119488751668</v>
+        <v>0.5878119488751667</v>
       </c>
       <c r="E519">
         <v>0.5339911586340113</v>
@@ -10306,7 +10306,7 @@
         <v>0.4827692580305479</v>
       </c>
       <c r="E523">
-        <v>0.4733494724931786</v>
+        <v>0.4733494724931785</v>
       </c>
     </row>
     <row r="524">
@@ -10341,7 +10341,7 @@
         <v>0.04676600663364521</v>
       </c>
       <c r="D525">
-        <v>0.7079617899364517</v>
+        <v>0.7079617899364516</v>
       </c>
       <c r="E525">
         <v>0.6694098915997604</v>
@@ -10512,7 +10512,7 @@
         <v>0.02090936263798554</v>
       </c>
       <c r="D534">
-        <v>0.6772648308122709</v>
+        <v>0.6772648308122708</v>
       </c>
       <c r="E534">
         <v>0.6563955023769937</v>
@@ -10572,7 +10572,7 @@
         <v>0.5855881783836354</v>
       </c>
       <c r="E537">
-        <v>0.5333534205126344</v>
+        <v>0.5333534205126343</v>
       </c>
     </row>
     <row r="538">
@@ -10610,7 +10610,7 @@
         <v>0.6082166016183104</v>
       </c>
       <c r="E539">
-        <v>0.5706952989825898</v>
+        <v>0.5706952989825897</v>
       </c>
     </row>
     <row r="540">
@@ -10737,7 +10737,7 @@
         </is>
       </c>
       <c r="C546">
-        <v>0.04402284987305311</v>
+        <v>0.0440228498730531</v>
       </c>
       <c r="D546">
         <v>0.636732264956279</v>
@@ -10832,7 +10832,7 @@
         </is>
       </c>
       <c r="C551">
-        <v>0.04487523218469793</v>
+        <v>0.04487523218469792</v>
       </c>
       <c r="D551">
         <v>0.5269254879670418</v>
@@ -11028,7 +11028,7 @@
         <v>0.550703619449934</v>
       </c>
       <c r="E561">
-        <v>0.4700504232290672</v>
+        <v>0.4700504232290671</v>
       </c>
     </row>
     <row r="562">
@@ -11098,7 +11098,7 @@
         </is>
       </c>
       <c r="C565">
-        <v>0.05129089152844119</v>
+        <v>0.05129089152844118</v>
       </c>
       <c r="D565">
         <v>0.7387220378889768</v>
@@ -11389,7 +11389,7 @@
         <v>0.8061114779747576</v>
       </c>
       <c r="E580">
-        <v>0.7657742698579007</v>
+        <v>0.7657742698579006</v>
       </c>
     </row>
     <row r="581">
@@ -11459,7 +11459,7 @@
         </is>
       </c>
       <c r="C584">
-        <v>0.03338741821372177</v>
+        <v>0.03338741821372176</v>
       </c>
       <c r="D584">
         <v>0.6176479378150526</v>
@@ -11557,7 +11557,7 @@
         <v>0.02297790970847962</v>
       </c>
       <c r="D589">
-        <v>0.4787814149829267</v>
+        <v>0.4787814149829266</v>
       </c>
       <c r="E589">
         <v>0.4700290960810333</v>
@@ -11674,7 +11674,7 @@
         <v>0.6956240340004531</v>
       </c>
       <c r="E595">
-        <v>0.6848253625421527</v>
+        <v>0.6848253625421526</v>
       </c>
     </row>
     <row r="596">
@@ -11709,7 +11709,7 @@
         <v>0.04775077068519777</v>
       </c>
       <c r="D597">
-        <v>0.6921449663803883</v>
+        <v>0.6921449663803882</v>
       </c>
       <c r="E597">
         <v>0.645940768752497</v>
@@ -11934,13 +11934,13 @@
         </is>
       </c>
       <c r="C609">
-        <v>0.02557138659147575</v>
+        <v>0.02557138659147574</v>
       </c>
       <c r="D609">
         <v>0.5821930112595929</v>
       </c>
       <c r="E609">
-        <v>0.5597839345068058</v>
+        <v>0.5597839345068057</v>
       </c>
     </row>
     <row r="610">
@@ -12016,7 +12016,7 @@
         <v>0.6930963046516169</v>
       </c>
       <c r="E613">
-        <v>0.687081278409642</v>
+        <v>0.6870812784096419</v>
       </c>
     </row>
     <row r="614">
@@ -12048,7 +12048,7 @@
         </is>
       </c>
       <c r="C615">
-        <v>0.04089476194533871</v>
+        <v>0.0408947619453387</v>
       </c>
       <c r="D615">
         <v>0.6272542714668381</v>
@@ -12092,7 +12092,7 @@
         <v>0.5310312899232711</v>
       </c>
       <c r="E617">
-        <v>0.4962350950285449</v>
+        <v>0.4962350950285448</v>
       </c>
     </row>
     <row r="618">
@@ -12282,7 +12282,7 @@
         <v>0.5549947005414252</v>
       </c>
       <c r="E627">
-        <v>0.4744334644051662</v>
+        <v>0.4744334644051661</v>
       </c>
     </row>
     <row r="628">
@@ -12491,7 +12491,7 @@
         <v>0.6165005003711787</v>
       </c>
       <c r="E638">
-        <v>0.6015902132735304</v>
+        <v>0.6015902132735303</v>
       </c>
     </row>
     <row r="639">
@@ -12542,7 +12542,7 @@
         </is>
       </c>
       <c r="C641">
-        <v>0.02493107354313495</v>
+        <v>0.02493107354313494</v>
       </c>
       <c r="D641">
         <v>0.6482971872058345</v>
@@ -12713,7 +12713,7 @@
         </is>
       </c>
       <c r="C650">
-        <v>0.03994784197241316</v>
+        <v>0.03994784197241315</v>
       </c>
       <c r="D650">
         <v>0.6255757790018509</v>
@@ -12773,7 +12773,7 @@
         <v>0.04262790309280564</v>
       </c>
       <c r="D653">
-        <v>0.6356685320233279</v>
+        <v>0.6356685320233278</v>
       </c>
       <c r="E653">
         <v>0.5896307289268181</v>
@@ -12868,7 +12868,7 @@
         <v>0.09427073829039685</v>
       </c>
       <c r="D658">
-        <v>0.6020278923906614</v>
+        <v>0.6020278923906613</v>
       </c>
       <c r="E658">
         <v>0.5456069019136619</v>
@@ -12906,7 +12906,7 @@
         <v>0.01140884439928644</v>
       </c>
       <c r="D660">
-        <v>0.726249953323366</v>
+        <v>0.7262499533233659</v>
       </c>
       <c r="E660">
         <v>0.7352346350450282</v>
@@ -13039,7 +13039,7 @@
         <v>0.09248961326624236</v>
       </c>
       <c r="D667">
-        <v>0.6325361827747577</v>
+        <v>0.6325361827747576</v>
       </c>
       <c r="E667">
         <v>0.5709463975993153</v>
@@ -13055,7 +13055,7 @@
         </is>
       </c>
       <c r="C668">
-        <v>0.03983894564478299</v>
+        <v>0.03983894564478298</v>
       </c>
       <c r="D668">
         <v>0.7508856780682472</v>
@@ -13169,7 +13169,7 @@
         </is>
       </c>
       <c r="C674">
-        <v>0.0533437563995622</v>
+        <v>0.05334375639956219</v>
       </c>
       <c r="D674">
         <v>0.6980213363837745</v>
@@ -13346,7 +13346,7 @@
         <v>0.53495288552445</v>
       </c>
       <c r="E683">
-        <v>0.4976797394395015</v>
+        <v>0.4976797394395014</v>
       </c>
     </row>
     <row r="684">
@@ -13669,7 +13669,7 @@
         <v>0.4199060198567537</v>
       </c>
       <c r="E700">
-        <v>0.388551225146608</v>
+        <v>0.3885512251466079</v>
       </c>
     </row>
     <row r="701">
@@ -13688,7 +13688,7 @@
         <v>0.6899077371217256</v>
       </c>
       <c r="E701">
-        <v>0.6327283671596125</v>
+        <v>0.6327283671596124</v>
       </c>
     </row>
     <row r="702">
@@ -13701,7 +13701,7 @@
         </is>
       </c>
       <c r="C702">
-        <v>0.06262505886862956</v>
+        <v>0.06262505886862955</v>
       </c>
       <c r="D702">
         <v>0.5453217346346204</v>
@@ -13929,7 +13929,7 @@
         </is>
       </c>
       <c r="C714">
-        <v>0.02671739618203506</v>
+        <v>0.02671739618203505</v>
       </c>
       <c r="D714">
         <v>0.770188979947407</v>
@@ -14087,7 +14087,7 @@
         <v>0.6381697922441534</v>
       </c>
       <c r="E722">
-        <v>0.5374882333477306</v>
+        <v>0.5374882333477305</v>
       </c>
     </row>
     <row r="723">
@@ -14141,7 +14141,7 @@
         <v>0.06091040818336543</v>
       </c>
       <c r="D725">
-        <v>0.6369057077067059</v>
+        <v>0.6369057077067058</v>
       </c>
       <c r="E725">
         <v>0.589876730517452</v>
@@ -14255,7 +14255,7 @@
         <v>0.0372419634704784</v>
       </c>
       <c r="D731">
-        <v>0.6362684297991798</v>
+        <v>0.6362684297991797</v>
       </c>
       <c r="E731">
         <v>0.6099380256694096</v>
@@ -14334,7 +14334,7 @@
         <v>0.5668368852910994</v>
       </c>
       <c r="E735">
-        <v>0.5212560979300847</v>
+        <v>0.5212560979300846</v>
       </c>
     </row>
     <row r="736">
@@ -14366,7 +14366,7 @@
         </is>
       </c>
       <c r="C737">
-        <v>0.05078297845521188</v>
+        <v>0.05078297845521187</v>
       </c>
       <c r="D737">
         <v>0.553332172521699</v>
@@ -14423,7 +14423,7 @@
         </is>
       </c>
       <c r="C740">
-        <v>0.0631258763183768</v>
+        <v>0.06312587631837679</v>
       </c>
       <c r="D740">
         <v>0.700967904286442</v>
@@ -14594,10 +14594,10 @@
         </is>
       </c>
       <c r="C749">
-        <v>0.0542129009167231</v>
+        <v>0.05421290091672309</v>
       </c>
       <c r="D749">
-        <v>0.5302738802136549</v>
+        <v>0.5302738802136548</v>
       </c>
       <c r="E749">
         <v>0.4919592829112697</v>
@@ -14673,7 +14673,7 @@
         <v>0.1394817865244002</v>
       </c>
       <c r="D753">
-        <v>0.5142080262512137</v>
+        <v>0.5142080262512136</v>
       </c>
       <c r="E753">
         <v>0.4483216511607296</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="C756">
-        <v>0.06380962600042058</v>
+        <v>0.06380962600042057</v>
       </c>
       <c r="D756">
         <v>0.7508946823345644</v>
@@ -14822,7 +14822,7 @@
         </is>
       </c>
       <c r="C761">
-        <v>0.01725388488589461</v>
+        <v>0.0172538848858946</v>
       </c>
       <c r="D761">
         <v>0.8041190180555967</v>
@@ -14920,7 +14920,7 @@
         <v>0.06253851697743379</v>
       </c>
       <c r="D766">
-        <v>0.4225430611917218</v>
+        <v>0.4225430611917217</v>
       </c>
       <c r="E766">
         <v>0.3938036119100666</v>
@@ -15015,7 +15015,7 @@
         <v>0.09201290565793492</v>
       </c>
       <c r="D771">
-        <v>0.7147949873358132</v>
+        <v>0.7147949873358131</v>
       </c>
       <c r="E771">
         <v>0.640584719392077</v>
@@ -15069,7 +15069,7 @@
         </is>
       </c>
       <c r="C774">
-        <v>0.1525943295625691</v>
+        <v>0.152594329562569</v>
       </c>
       <c r="D774">
         <v>0.533841793298341</v>
@@ -15094,7 +15094,7 @@
         <v>0.7533429629499968</v>
       </c>
       <c r="E775">
-        <v>0.752598267274523</v>
+        <v>0.7525982672745229</v>
       </c>
     </row>
     <row r="776">
@@ -15379,7 +15379,7 @@
         <v>0.5903782208168084</v>
       </c>
       <c r="E790">
-        <v>0.5338232749370288</v>
+        <v>0.5338232749370287</v>
       </c>
     </row>
     <row r="791">
@@ -15702,7 +15702,7 @@
         <v>0.5535295788961875</v>
       </c>
       <c r="E807">
-        <v>0.527489397768444</v>
+        <v>0.5274893977684439</v>
       </c>
     </row>
     <row r="808">
@@ -15851,7 +15851,7 @@
         <v>0.05988463916636114</v>
       </c>
       <c r="D815">
-        <v>0.5421843920722173</v>
+        <v>0.5421843920722172</v>
       </c>
       <c r="E815">
         <v>0.5011867520428985</v>
@@ -15949,7 +15949,7 @@
         <v>0.5690160735172121</v>
       </c>
       <c r="E820">
-        <v>0.5461585256817571</v>
+        <v>0.546158525681757</v>
       </c>
     </row>
     <row r="821">
@@ -16120,7 +16120,7 @@
         <v>0.7627568270749395</v>
       </c>
       <c r="E829">
-        <v>0.6982572197264833</v>
+        <v>0.6982572197264832</v>
       </c>
     </row>
     <row r="830">
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="C836">
-        <v>0.03240988913430321</v>
+        <v>0.0324098891343032</v>
       </c>
       <c r="D836">
         <v>0.5952972445545665</v>
@@ -16291,7 +16291,7 @@
         <v>0.714602137459886</v>
       </c>
       <c r="E838">
-        <v>0.7057765891262156</v>
+        <v>0.7057765891262155</v>
       </c>
     </row>
     <row r="839">
@@ -16494,7 +16494,7 @@
         </is>
       </c>
       <c r="C849">
-        <v>0.08667033498932542</v>
+        <v>0.08667033498932541</v>
       </c>
       <c r="D849">
         <v>0.60350526475801</v>
@@ -16551,7 +16551,7 @@
         </is>
       </c>
       <c r="C852">
-        <v>0.09493118050826394</v>
+        <v>0.09493118050826393</v>
       </c>
       <c r="D852">
         <v>0.4987789458401339</v>
@@ -16671,7 +16671,7 @@
         <v>0.7304622391735824</v>
       </c>
       <c r="E858">
-        <v>0.7217940086464924</v>
+        <v>0.7217940086464923</v>
       </c>
     </row>
     <row r="859">
@@ -16747,7 +16747,7 @@
         <v>0.6527934243474124</v>
       </c>
       <c r="E862">
-        <v>0.6734189755388687</v>
+        <v>0.6734189755388686</v>
       </c>
     </row>
     <row r="863">
@@ -16975,7 +16975,7 @@
         <v>0.6019986573589964</v>
       </c>
       <c r="E874">
-        <v>0.6006286697372028</v>
+        <v>0.6006286697372027</v>
       </c>
     </row>
     <row r="875">
@@ -17051,7 +17051,7 @@
         <v>0.7152719710794009</v>
       </c>
       <c r="E878">
-        <v>0.6811511064910935</v>
+        <v>0.6811511064910934</v>
       </c>
     </row>
     <row r="879">
@@ -17140,7 +17140,7 @@
         </is>
       </c>
       <c r="C883">
-        <v>0.0163436943579839</v>
+        <v>0.01634369435798389</v>
       </c>
       <c r="D883">
         <v>0.7385512582787442</v>
@@ -17504,7 +17504,7 @@
         <v>0.04281079121931804</v>
       </c>
       <c r="D902">
-        <v>0.5896660543350774</v>
+        <v>0.5896660543350773</v>
       </c>
       <c r="E902">
         <v>0.5649570952254165</v>
@@ -17564,7 +17564,7 @@
         <v>0.6683790838887828</v>
       </c>
       <c r="E905">
-        <v>0.6448914301885113</v>
+        <v>0.6448914301885112</v>
       </c>
     </row>
     <row r="906">
@@ -17672,7 +17672,7 @@
         </is>
       </c>
       <c r="C911">
-        <v>0.0152621980678846</v>
+        <v>0.01526219806788459</v>
       </c>
       <c r="D911">
         <v>0.8023934113975775</v>
@@ -17697,7 +17697,7 @@
         <v>0.7652415801395882</v>
       </c>
       <c r="E912">
-        <v>0.7670464190799216</v>
+        <v>0.7670464190799215</v>
       </c>
     </row>
     <row r="913">
@@ -17770,7 +17770,7 @@
         <v>0.07888379740973363</v>
       </c>
       <c r="D916">
-        <v>0.542191372997117</v>
+        <v>0.5421913729971169</v>
       </c>
       <c r="E916">
         <v>0.4998430031859139</v>
@@ -17998,7 +17998,7 @@
         <v>0</v>
       </c>
       <c r="D928">
-        <v>0.6532651959405385</v>
+        <v>0.6532651959405384</v>
       </c>
       <c r="E928">
         <v>0.6727118608024815</v>
@@ -18210,7 +18210,7 @@
         <v>0.541329162769015</v>
       </c>
       <c r="E939">
-        <v>0.5100150090210081</v>
+        <v>0.510015009021008</v>
       </c>
     </row>
     <row r="940">
@@ -18324,7 +18324,7 @@
         <v>0.6446728502916206</v>
       </c>
       <c r="E945">
-        <v>0.595547463835915</v>
+        <v>0.5955474638359149</v>
       </c>
     </row>
     <row r="946">
@@ -18454,7 +18454,7 @@
         <v>0.02725070423238765</v>
       </c>
       <c r="D952">
-        <v>0.593024322142852</v>
+        <v>0.5930243221428519</v>
       </c>
       <c r="E952">
         <v>0.5785328733928903</v>
@@ -18492,7 +18492,7 @@
         <v>0.05684727752891071</v>
       </c>
       <c r="D954">
-        <v>0.7228146243293419</v>
+        <v>0.7228146243293418</v>
       </c>
       <c r="E954">
         <v>0.6886483364033444</v>
@@ -18644,7 +18644,7 @@
         <v>0.03799064609289931</v>
       </c>
       <c r="D962">
-        <v>0.7310789863374279</v>
+        <v>0.7310789863374278</v>
       </c>
       <c r="E962">
         <v>0.7123132659617545</v>
@@ -18682,7 +18682,7 @@
         <v>0.03379550989935947</v>
       </c>
       <c r="D964">
-        <v>0.4044247117842234</v>
+        <v>0.4044247117842233</v>
       </c>
       <c r="E964">
         <v>0.3865177494133077</v>
@@ -18723,7 +18723,7 @@
         <v>0.5444095432218992</v>
       </c>
       <c r="E966">
-        <v>0.4993182136680368</v>
+        <v>0.4993182136680367</v>
       </c>
     </row>
     <row r="967">
@@ -19005,7 +19005,7 @@
         <v>0.06483349712736611</v>
       </c>
       <c r="D981">
-        <v>0.5981142243129402</v>
+        <v>0.5981142243129401</v>
       </c>
       <c r="E981">
         <v>0.5520906497436615</v>
@@ -19024,7 +19024,7 @@
         <v>0.06019764687420406</v>
       </c>
       <c r="D982">
-        <v>0.5418362054605475</v>
+        <v>0.5418362054605474</v>
       </c>
       <c r="E982">
         <v>0.5034264789161631</v>
@@ -19157,7 +19157,7 @@
         <v>0.06818420403652142</v>
       </c>
       <c r="D989">
-        <v>0.6358403184504488</v>
+        <v>0.6358403184504487</v>
       </c>
       <c r="E989">
         <v>0.5853483808877705</v>
@@ -19195,7 +19195,7 @@
         <v>0.0310914753612296</v>
       </c>
       <c r="D991">
-        <v>0.6920546346760133</v>
+        <v>0.6920546346760132</v>
       </c>
       <c r="E991">
         <v>0.6736352174997031</v>
@@ -19290,7 +19290,7 @@
         <v>0.02922569690052064</v>
       </c>
       <c r="D996">
-        <v>0.6678207030366286</v>
+        <v>0.6678207030366285</v>
       </c>
       <c r="E996">
         <v>0.6426796334798579</v>
@@ -19385,7 +19385,7 @@
         <v>0.03877136676170811</v>
       </c>
       <c r="D1001">
-        <v>0.5534405762284586</v>
+        <v>0.5534405762284585</v>
       </c>
       <c r="E1001">
         <v>0.5193175914894003</v>
@@ -19445,7 +19445,7 @@
         <v>0.7049561811830855</v>
       </c>
       <c r="E1004">
-        <v>0.6584359863585833</v>
+        <v>0.6584359863585832</v>
       </c>
     </row>
     <row r="1005">
@@ -19458,7 +19458,7 @@
         </is>
       </c>
       <c r="C1005">
-        <v>0.07295161912742267</v>
+        <v>0.07295161912742266</v>
       </c>
       <c r="D1005">
         <v>0.5606912512521491</v>
@@ -19572,7 +19572,7 @@
         </is>
       </c>
       <c r="C1011">
-        <v>0.05097533972509744</v>
+        <v>0.05097533972509743</v>
       </c>
       <c r="D1011">
         <v>0.643682720491593</v>
@@ -19635,7 +19635,7 @@
         <v>0.5829749261685594</v>
       </c>
       <c r="E1014">
-        <v>0.5486432496766635</v>
+        <v>0.5486432496766634</v>
       </c>
     </row>
     <row r="1015">
@@ -19651,7 +19651,7 @@
         <v>0.01630558976010135</v>
       </c>
       <c r="D1015">
-        <v>0.7384377164111065</v>
+        <v>0.7384377164111064</v>
       </c>
       <c r="E1015">
         <v>0.7365779175991251</v>
@@ -19781,7 +19781,7 @@
         </is>
       </c>
       <c r="C1022">
-        <v>0.04257296347820636</v>
+        <v>0.04257296347820635</v>
       </c>
       <c r="D1022">
         <v>0.6930371229055257</v>
@@ -19800,7 +19800,7 @@
         </is>
       </c>
       <c r="C1023">
-        <v>0.1402900309153694</v>
+        <v>0.1402900309153693</v>
       </c>
       <c r="D1023">
         <v>0.5710696774471399</v>
@@ -19952,7 +19952,7 @@
         </is>
       </c>
       <c r="C1031">
-        <v>0.0856621565808345</v>
+        <v>0.08566215658083449</v>
       </c>
       <c r="D1031">
         <v>0.6843889253264273</v>
@@ -20053,7 +20053,7 @@
         <v>0.6755701757571843</v>
       </c>
       <c r="E1036">
-        <v>0.6801285650798477</v>
+        <v>0.6801285650798476</v>
       </c>
     </row>
     <row r="1037">
@@ -20202,7 +20202,7 @@
         <v>0.02502571860298918</v>
       </c>
       <c r="D1044">
-        <v>0.736818398463499</v>
+        <v>0.7368183984634989</v>
       </c>
       <c r="E1044">
         <v>0.7487415452896421</v>
@@ -20351,7 +20351,7 @@
         </is>
       </c>
       <c r="C1052">
-        <v>0.1677665323075746</v>
+        <v>0.1677665323075745</v>
       </c>
       <c r="D1052">
         <v>0.6484573977389021</v>
@@ -20506,7 +20506,7 @@
         <v>0</v>
       </c>
       <c r="D1060">
-        <v>0.6579641868871921</v>
+        <v>0.657964186887192</v>
       </c>
       <c r="E1060">
         <v>0.6704016416009805</v>
@@ -20737,7 +20737,7 @@
         <v>0.6214961315166191</v>
       </c>
       <c r="E1072">
-        <v>0.6168689948137242</v>
+        <v>0.6168689948137241</v>
       </c>
     </row>
     <row r="1073">
@@ -20826,7 +20826,7 @@
         </is>
       </c>
       <c r="C1077">
-        <v>0.04839168587141166</v>
+        <v>0.04839168587141165</v>
       </c>
       <c r="D1077">
         <v>0.63464307492808</v>
@@ -20889,7 +20889,7 @@
         <v>0.5710158626602524</v>
       </c>
       <c r="E1080">
-        <v>0.5326329051611664</v>
+        <v>0.5326329051611663</v>
       </c>
     </row>
     <row r="1081">
@@ -21054,7 +21054,7 @@
         </is>
       </c>
       <c r="C1089">
-        <v>0.1664015923729035</v>
+        <v>0.1664015923729034</v>
       </c>
       <c r="D1089">
         <v>0.5593548364930985</v>
@@ -21076,7 +21076,7 @@
         <v>0.05610076894143189</v>
       </c>
       <c r="D1090">
-        <v>0.6135852222576133</v>
+        <v>0.6135852222576132</v>
       </c>
       <c r="E1090">
         <v>0.5568223294105996</v>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="C1096">
-        <v>0.04337158614615552</v>
+        <v>0.04337158614615551</v>
       </c>
       <c r="D1096">
         <v>0.4181674728074927</v>
@@ -21266,7 +21266,7 @@
         <v>0.01072118331689475</v>
       </c>
       <c r="D1100">
-        <v>0.5718796066898128</v>
+        <v>0.5718796066898127</v>
       </c>
       <c r="E1100">
         <v>0.5665797878672207</v>
@@ -21684,7 +21684,7 @@
         <v>0.02972503037047935</v>
       </c>
       <c r="D1122">
-        <v>0.7100682222544436</v>
+        <v>0.7100682222544435</v>
       </c>
       <c r="E1122">
         <v>0.6950391309603476</v>
@@ -21776,7 +21776,7 @@
         </is>
       </c>
       <c r="C1127">
-        <v>0.0712671653031545</v>
+        <v>0.07126716530315449</v>
       </c>
       <c r="D1127">
         <v>0.6285405030354259</v>
@@ -21947,7 +21947,7 @@
         </is>
       </c>
       <c r="C1136">
-        <v>0.07372113119759526</v>
+        <v>0.07372113119759525</v>
       </c>
       <c r="D1136">
         <v>0.6815469851004138</v>
@@ -22330,7 +22330,7 @@
         <v>0.06498372855790988</v>
       </c>
       <c r="D1156">
-        <v>0.612969459707354</v>
+        <v>0.6129694597073539</v>
       </c>
       <c r="E1156">
         <v>0.5537893411609316</v>
@@ -22384,7 +22384,7 @@
         </is>
       </c>
       <c r="C1159">
-        <v>0.1245531309192342</v>
+        <v>0.1245531309192341</v>
       </c>
       <c r="D1159">
         <v>0.7447921952529303</v>
@@ -22789,7 +22789,7 @@
         <v>0.5457204121041883</v>
       </c>
       <c r="E1180">
-        <v>0.5084431181818268</v>
+        <v>0.5084431181818267</v>
       </c>
     </row>
     <row r="1181">
@@ -22840,7 +22840,7 @@
         </is>
       </c>
       <c r="C1183">
-        <v>0.03148640632013215</v>
+        <v>0.03148640632013214</v>
       </c>
       <c r="D1183">
         <v>0.4587628689607531</v>
@@ -23033,7 +23033,7 @@
         <v>0.06494336811597028</v>
       </c>
       <c r="D1193">
-        <v>0.6275026419308049</v>
+        <v>0.6275026419308048</v>
       </c>
       <c r="E1193">
         <v>0.5865622547544389</v>
@@ -23112,7 +23112,7 @@
         <v>0.5487429419631152</v>
       </c>
       <c r="E1197">
-        <v>0.5010789404660117</v>
+        <v>0.5010789404660116</v>
       </c>
     </row>
     <row r="1198">
@@ -23188,7 +23188,7 @@
         <v>0.6225136908844825</v>
       </c>
       <c r="E1201">
-        <v>0.5711177900983983</v>
+        <v>0.5711177900983982</v>
       </c>
     </row>
     <row r="1202">
@@ -23201,7 +23201,7 @@
         </is>
       </c>
       <c r="C1202">
-        <v>0.07107448217086435</v>
+        <v>0.07107448217086434</v>
       </c>
       <c r="D1202">
         <v>0.6777014864780236</v>
@@ -23223,7 +23223,7 @@
         <v>0.09127632711177816</v>
       </c>
       <c r="D1203">
-        <v>0.5883585548927131</v>
+        <v>0.588358554892713</v>
       </c>
       <c r="E1203">
         <v>0.5475813684167902</v>
@@ -23375,10 +23375,10 @@
         <v>0.0945376680705966</v>
       </c>
       <c r="D1211">
-        <v>0.5229683655465826</v>
+        <v>0.5229683655465825</v>
       </c>
       <c r="E1211">
-        <v>0.4731050272117569</v>
+        <v>0.4731050272117568</v>
       </c>
     </row>
     <row r="1212">
@@ -23470,7 +23470,7 @@
         <v>0.03181489102384501</v>
       </c>
       <c r="D1216">
-        <v>0.6092139469056001</v>
+        <v>0.6092139469056</v>
       </c>
       <c r="E1216">
         <v>0.5913083993989209</v>
@@ -23486,7 +23486,7 @@
         </is>
       </c>
       <c r="C1217">
-        <v>0.042106500987589</v>
+        <v>0.04210650098758899</v>
       </c>
       <c r="D1217">
         <v>0.7147511793521493</v>
@@ -23622,7 +23622,7 @@
         <v>0</v>
       </c>
       <c r="D1224">
-        <v>0.6713861589833911</v>
+        <v>0.671386158983391</v>
       </c>
       <c r="E1224">
         <v>0.6907748673973574</v>
@@ -24233,7 +24233,7 @@
         <v>0.5696912240057497</v>
       </c>
       <c r="E1256">
-        <v>0.5339923664987109</v>
+        <v>0.5339923664987108</v>
       </c>
     </row>
     <row r="1257">
@@ -24651,7 +24651,7 @@
         <v>0.5749082185374099</v>
       </c>
       <c r="E1278">
-        <v>0.5380076797012146</v>
+        <v>0.5380076797012145</v>
       </c>
     </row>
     <row r="1279">
@@ -24803,7 +24803,7 @@
         <v>0.6854975503756112</v>
       </c>
       <c r="E1286">
-        <v>0.6570389915631451</v>
+        <v>0.657038991563145</v>
       </c>
     </row>
     <row r="1287">
@@ -24911,7 +24911,7 @@
         </is>
       </c>
       <c r="C1292">
-        <v>0.03609709690169712</v>
+        <v>0.03609709690169711</v>
       </c>
       <c r="D1292">
         <v>0.718902282689439</v>
@@ -25199,7 +25199,7 @@
         <v>0.01561792846937997</v>
       </c>
       <c r="D1307">
-        <v>0.7988841010766568</v>
+        <v>0.7988841010766567</v>
       </c>
       <c r="E1307">
         <v>0.8005495858848285</v>
@@ -25253,13 +25253,13 @@
         </is>
       </c>
       <c r="C1310">
-        <v>0.04991796240513279</v>
+        <v>0.04991796240513278</v>
       </c>
       <c r="D1310">
-        <v>0.5912083869088896</v>
+        <v>0.5912083869088895</v>
       </c>
       <c r="E1310">
-        <v>0.5701642574954156</v>
+        <v>0.5701642574954155</v>
       </c>
     </row>
     <row r="1311">
@@ -25278,7 +25278,7 @@
         <v>0.6324437192707688</v>
       </c>
       <c r="E1311">
-        <v>0.5872949195967832</v>
+        <v>0.5872949195967831</v>
       </c>
     </row>
     <row r="1312">
@@ -25408,7 +25408,7 @@
         <v>0.0543959744978581</v>
       </c>
       <c r="D1318">
-        <v>0.6188841827388582</v>
+        <v>0.6188841827388581</v>
       </c>
       <c r="E1318">
         <v>0.5687260415859355</v>
@@ -25500,7 +25500,7 @@
         </is>
       </c>
       <c r="C1323">
-        <v>0.0573669113294534</v>
+        <v>0.05736691132945339</v>
       </c>
       <c r="D1323">
         <v>0.660825117628122</v>
@@ -25655,7 +25655,7 @@
         <v>0.02151709022788365</v>
       </c>
       <c r="D1331">
-        <v>0.5213480038151384</v>
+        <v>0.5213480038151383</v>
       </c>
       <c r="E1331">
         <v>0.4955442920568005</v>
@@ -25696,7 +25696,7 @@
         <v>0.6273366628107713</v>
       </c>
       <c r="E1333">
-        <v>0.5830732859574102</v>
+        <v>0.5830732859574101</v>
       </c>
     </row>
     <row r="1334">
@@ -25769,7 +25769,7 @@
         <v>0.1108205785436277</v>
       </c>
       <c r="D1337">
-        <v>0.4873297787817914</v>
+        <v>0.4873297787817913</v>
       </c>
       <c r="E1337">
         <v>0.4195142398778882</v>
@@ -25940,7 +25940,7 @@
         <v>0.09640630849412625</v>
       </c>
       <c r="D1346">
-        <v>0.5624986752825592</v>
+        <v>0.5624986752825591</v>
       </c>
       <c r="E1346">
         <v>0.4994457564221493</v>
@@ -26298,7 +26298,7 @@
         </is>
       </c>
       <c r="C1365">
-        <v>0.08369642172697706</v>
+        <v>0.08369642172697705</v>
       </c>
       <c r="D1365">
         <v>0.6964237373334529</v>
@@ -26377,7 +26377,7 @@
         <v>0.01791976714724163</v>
       </c>
       <c r="D1369">
-        <v>0.7297373412646822</v>
+        <v>0.7297373412646821</v>
       </c>
       <c r="E1369">
         <v>0.7277352343288639</v>
@@ -26491,7 +26491,7 @@
         <v>0.03762172948436794</v>
       </c>
       <c r="D1375">
-        <v>0.6784947806269857</v>
+        <v>0.6784947806269856</v>
       </c>
       <c r="E1375">
         <v>0.6504534921714074</v>
@@ -26526,7 +26526,7 @@
         </is>
       </c>
       <c r="C1377">
-        <v>0.05402147015843836</v>
+        <v>0.05402147015843835</v>
       </c>
       <c r="D1377">
         <v>0.6435279558048378</v>
@@ -26627,7 +26627,7 @@
         <v>0.6469033983947989</v>
       </c>
       <c r="E1382">
-        <v>0.5318877796234141</v>
+        <v>0.531887779623414</v>
       </c>
     </row>
     <row r="1383">
@@ -26830,7 +26830,7 @@
         </is>
       </c>
       <c r="C1393">
-        <v>0.06696695175171089</v>
+        <v>0.06696695175171088</v>
       </c>
       <c r="D1393">
         <v>0.6670026737200495</v>
@@ -26909,10 +26909,10 @@
         <v>0.03776612397011438</v>
       </c>
       <c r="D1397">
-        <v>0.5393403399478181</v>
+        <v>0.539340339947818</v>
       </c>
       <c r="E1397">
-        <v>0.5064716651837679</v>
+        <v>0.5064716651837678</v>
       </c>
     </row>
     <row r="1398">
@@ -26966,7 +26966,7 @@
         <v>0.05541855830162215</v>
       </c>
       <c r="D1400">
-        <v>0.6792263968655971</v>
+        <v>0.679226396865597</v>
       </c>
       <c r="E1400">
         <v>0.6397496415969604</v>
@@ -27001,7 +27001,7 @@
         </is>
       </c>
       <c r="C1402">
-        <v>0.02427557184779122</v>
+        <v>0.02427557184779121</v>
       </c>
       <c r="D1402">
         <v>0.623787075511282</v>
@@ -27153,7 +27153,7 @@
         </is>
       </c>
       <c r="C1410">
-        <v>0.07553424270754156</v>
+        <v>0.07553424270754155</v>
       </c>
       <c r="D1410">
         <v>0.616765495391887</v>
@@ -27210,7 +27210,7 @@
         </is>
       </c>
       <c r="C1413">
-        <v>0.07040708002547468</v>
+        <v>0.07040708002547467</v>
       </c>
       <c r="D1413">
         <v>0.4382309992375388</v>
@@ -27251,7 +27251,7 @@
         <v>0.04158726848940724</v>
       </c>
       <c r="D1415">
-        <v>0.7299446570887213</v>
+        <v>0.7299446570887212</v>
       </c>
       <c r="E1415">
         <v>0.7060643020591448</v>
@@ -27419,13 +27419,13 @@
         </is>
       </c>
       <c r="C1424">
-        <v>0.03688467667398755</v>
+        <v>0.03688467667398754</v>
       </c>
       <c r="D1424">
         <v>0.7213282701175445</v>
       </c>
       <c r="E1424">
-        <v>0.7039585659146757</v>
+        <v>0.7039585659146756</v>
       </c>
     </row>
     <row r="1425">
@@ -27441,7 +27441,7 @@
         <v>0.03789751171199512</v>
       </c>
       <c r="D1425">
-        <v>0.6639553950666614</v>
+        <v>0.6639553950666613</v>
       </c>
       <c r="E1425">
         <v>0.6362698532574055</v>
@@ -27748,7 +27748,7 @@
         <v>0.6824001290582872</v>
       </c>
       <c r="E1441">
-        <v>0.6537635068150896</v>
+        <v>0.6537635068150895</v>
       </c>
     </row>
     <row r="1442">
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="C1446">
-        <v>0.1657797000543906</v>
+        <v>0.1657797000543905</v>
       </c>
       <c r="D1446">
         <v>0.5318040876435562</v>
@@ -27970,10 +27970,10 @@
         </is>
       </c>
       <c r="C1453">
-        <v>0.02785202529497746</v>
+        <v>0.02785202529497745</v>
       </c>
       <c r="D1453">
-        <v>0.68525275531585</v>
+        <v>0.6852527553158499</v>
       </c>
       <c r="E1453">
         <v>0.669635514190836</v>
@@ -28179,7 +28179,7 @@
         </is>
       </c>
       <c r="C1464">
-        <v>0.05119743142800595</v>
+        <v>0.05119743142800594</v>
       </c>
       <c r="D1464">
         <v>0.7090627284939093</v>
@@ -28274,7 +28274,7 @@
         </is>
       </c>
       <c r="C1469">
-        <v>0.106949860371849</v>
+        <v>0.1069498603718489</v>
       </c>
       <c r="D1469">
         <v>0.4858497378307169</v>
@@ -28619,7 +28619,7 @@
         <v>0.01254618869166387</v>
       </c>
       <c r="D1487">
-        <v>0.7416009620568455</v>
+        <v>0.7416009620568454</v>
       </c>
       <c r="E1487">
         <v>0.7761485127725752</v>
@@ -28736,7 +28736,7 @@
         <v>0.692648033322897</v>
       </c>
       <c r="E1493">
-        <v>0.6213942819100679</v>
+        <v>0.6213942819100678</v>
       </c>
     </row>
     <row r="1494">
@@ -29002,7 +29002,7 @@
         <v>0.6810524483766114</v>
       </c>
       <c r="E1507">
-        <v>0.6557249384507276</v>
+        <v>0.6557249384507275</v>
       </c>
     </row>
     <row r="1508">
@@ -29037,7 +29037,7 @@
         <v>0.07273062590318362</v>
       </c>
       <c r="D1509">
-        <v>0.6395315609962075</v>
+        <v>0.6395315609962074</v>
       </c>
       <c r="E1509">
         <v>0.5884386818181145</v>
@@ -29072,7 +29072,7 @@
         </is>
       </c>
       <c r="C1511">
-        <v>0.117000723622959</v>
+        <v>0.1170007236229589</v>
       </c>
       <c r="D1511">
         <v>0.6403553404577239</v>
@@ -29192,7 +29192,7 @@
         <v>0.6315633431078875</v>
       </c>
       <c r="E1517">
-        <v>0.5752162854266582</v>
+        <v>0.5752162854266581</v>
       </c>
     </row>
     <row r="1518">
@@ -29287,7 +29287,7 @@
         <v>0.637727784336714</v>
       </c>
       <c r="E1522">
-        <v>0.6545782976249303</v>
+        <v>0.6545782976249302</v>
       </c>
     </row>
     <row r="1523">
@@ -29908,7 +29908,7 @@
         </is>
       </c>
       <c r="C1555">
-        <v>0.145291571423696</v>
+        <v>0.1452915714236959</v>
       </c>
       <c r="D1555">
         <v>0.771941445672114</v>
@@ -29984,7 +29984,7 @@
         </is>
       </c>
       <c r="C1559">
-        <v>0.09595752080663642</v>
+        <v>0.09595752080663641</v>
       </c>
       <c r="D1559">
         <v>0.6953380416949505</v>
@@ -30408,7 +30408,7 @@
         <v>0.6688742603736226</v>
       </c>
       <c r="E1581">
-        <v>0.6194459703798984</v>
+        <v>0.6194459703798983</v>
       </c>
     </row>
     <row r="1582">
@@ -30576,7 +30576,7 @@
         <v>0.05157499295447116</v>
       </c>
       <c r="D1590">
-        <v>0.6567871545187543</v>
+        <v>0.6567871545187542</v>
       </c>
       <c r="E1590">
         <v>0.6199842992362694</v>
@@ -30785,7 +30785,7 @@
         <v>0.1303946230333327</v>
       </c>
       <c r="D1601">
-        <v>0.4912630430029557</v>
+        <v>0.4912630430029556</v>
       </c>
       <c r="E1601">
         <v>0.4188232577041947</v>
@@ -30883,7 +30883,7 @@
         <v>0.5747940045688912</v>
       </c>
       <c r="E1606">
-        <v>0.5273582032193585</v>
+        <v>0.5273582032193584</v>
       </c>
     </row>
     <row r="1607">
@@ -31238,7 +31238,7 @@
         </is>
       </c>
       <c r="C1625">
-        <v>0.09695963244417157</v>
+        <v>0.09695963244417156</v>
       </c>
       <c r="D1625">
         <v>0.6907041475949572</v>
@@ -31469,7 +31469,7 @@
         <v>0.01935322004873684</v>
       </c>
       <c r="D1637">
-        <v>0.804111321143468</v>
+        <v>0.8041113211434679</v>
       </c>
       <c r="E1637">
         <v>0.7963117091382166</v>
@@ -31491,7 +31491,7 @@
         <v>0.7447308820277047</v>
       </c>
       <c r="E1638">
-        <v>0.739653996252636</v>
+        <v>0.7396539962526359</v>
       </c>
     </row>
     <row r="1639">
@@ -31754,7 +31754,7 @@
         <v>0.08082841113507822</v>
       </c>
       <c r="D1652">
-        <v>0.5698731739795248</v>
+        <v>0.5698731739795247</v>
       </c>
       <c r="E1652">
         <v>0.518336675246674</v>
@@ -31770,7 +31770,7 @@
         </is>
       </c>
       <c r="C1653">
-        <v>0.1135243078904838</v>
+        <v>0.1135243078904837</v>
       </c>
       <c r="D1653">
         <v>0.655633022261187</v>
@@ -31792,7 +31792,7 @@
         <v>0</v>
       </c>
       <c r="D1654">
-        <v>0.6446027374348256</v>
+        <v>0.6446027374348255</v>
       </c>
       <c r="E1654">
         <v>0.6554633538810573</v>
@@ -31909,7 +31909,7 @@
         <v>0.7583208625641207</v>
       </c>
       <c r="E1660">
-        <v>0.7136408439960355</v>
+        <v>0.7136408439960354</v>
       </c>
     </row>
     <row r="1661">
@@ -32093,7 +32093,7 @@
         </is>
       </c>
       <c r="C1670">
-        <v>0.0623355318852438</v>
+        <v>0.06233553188524379</v>
       </c>
       <c r="D1670">
         <v>0.7204376187811813</v>
@@ -32175,7 +32175,7 @@
         <v>0.5702589188480143</v>
       </c>
       <c r="E1674">
-        <v>0.5329844760775832</v>
+        <v>0.5329844760775831</v>
       </c>
     </row>
     <row r="1675">
@@ -32267,7 +32267,7 @@
         <v>0.06731514708062947</v>
       </c>
       <c r="D1679">
-        <v>0.7527776802697787</v>
+        <v>0.7527776802697786</v>
       </c>
       <c r="E1679">
         <v>0.703388492889957</v>
@@ -32403,7 +32403,7 @@
         <v>0.6832298205483709</v>
       </c>
       <c r="E1686">
-        <v>0.6889256884178751</v>
+        <v>0.688925688417875</v>
       </c>
     </row>
     <row r="1687">
@@ -32435,7 +32435,7 @@
         </is>
       </c>
       <c r="C1688">
-        <v>0.05970330645695948</v>
+        <v>0.05970330645695947</v>
       </c>
       <c r="D1688">
         <v>0.7438917685318415</v>
@@ -32454,7 +32454,7 @@
         </is>
       </c>
       <c r="C1689">
-        <v>0.06037002656823663</v>
+        <v>0.06037002656823662</v>
       </c>
       <c r="D1689">
         <v>0.6568502907974686</v>
@@ -32530,7 +32530,7 @@
         </is>
       </c>
       <c r="C1693">
-        <v>0.1810050825008746</v>
+        <v>0.1810050825008745</v>
       </c>
       <c r="D1693">
         <v>0.4914222938904311</v>
@@ -32818,7 +32818,7 @@
         <v>0.1281828994640196</v>
       </c>
       <c r="D1708">
-        <v>0.5767904724695963</v>
+        <v>0.5767904724695962</v>
       </c>
       <c r="E1708">
         <v>0.520343253912536</v>
@@ -32897,7 +32897,7 @@
         <v>0.6633750660082686</v>
       </c>
       <c r="E1712">
-        <v>0.5282666020781796</v>
+        <v>0.5282666020781795</v>
       </c>
     </row>
     <row r="1713">
@@ -33005,10 +33005,10 @@
         </is>
       </c>
       <c r="C1718">
-        <v>0.08186283516905366</v>
+        <v>0.08186283516905365</v>
       </c>
       <c r="D1718">
-        <v>0.5727154427258469</v>
+        <v>0.5727154427258468</v>
       </c>
       <c r="E1718">
         <v>0.5205450933993188</v>
@@ -33049,7 +33049,7 @@
         <v>0.6539934360265054</v>
       </c>
       <c r="E1720">
-        <v>0.6624318526117125</v>
+        <v>0.6624318526117124</v>
       </c>
     </row>
     <row r="1721">
@@ -33119,7 +33119,7 @@
         </is>
       </c>
       <c r="C1724">
-        <v>0.1221970209188051</v>
+        <v>0.122197020918805</v>
       </c>
       <c r="D1724">
         <v>0.7813423277213301</v>
@@ -33404,7 +33404,7 @@
         </is>
       </c>
       <c r="C1739">
-        <v>0.1009888129241568</v>
+        <v>0.1009888129241567</v>
       </c>
       <c r="D1739">
         <v>0.5449906458682843</v>
@@ -33442,13 +33442,13 @@
         </is>
       </c>
       <c r="C1741">
-        <v>0.03457332367489061</v>
+        <v>0.0345733236748906</v>
       </c>
       <c r="D1741">
         <v>0.733555170058802</v>
       </c>
       <c r="E1741">
-        <v>0.711114044540538</v>
+        <v>0.7111140445405379</v>
       </c>
     </row>
     <row r="1742">
@@ -33464,7 +33464,7 @@
         <v>0.2299885368264712</v>
       </c>
       <c r="D1742">
-        <v>0.57300529587637</v>
+        <v>0.5730052958763699</v>
       </c>
       <c r="E1742">
         <v>0.4941757786132332</v>
@@ -33635,7 +33635,7 @@
         <v>0.02546292841330054</v>
       </c>
       <c r="D1751">
-        <v>0.7619723425770028</v>
+        <v>0.7619723425770027</v>
       </c>
       <c r="E1751">
         <v>0.7501039107012502</v>
@@ -33730,7 +33730,7 @@
         <v>0.06855770533956797</v>
       </c>
       <c r="D1756">
-        <v>0.4189210518756703</v>
+        <v>0.4189210518756702</v>
       </c>
       <c r="E1756">
         <v>0.3884161414392526</v>
@@ -33898,7 +33898,7 @@
         </is>
       </c>
       <c r="C1765">
-        <v>0.03685276535116609</v>
+        <v>0.03685276535116608</v>
       </c>
       <c r="D1765">
         <v>0.7275386624501777</v>
@@ -34183,10 +34183,10 @@
         </is>
       </c>
       <c r="C1780">
-        <v>0.1342380164773172</v>
+        <v>0.1342380164773171</v>
       </c>
       <c r="D1780">
-        <v>0.6268668296677487</v>
+        <v>0.6268668296677486</v>
       </c>
       <c r="E1780">
         <v>0.5599107785358862</v>
@@ -34221,7 +34221,7 @@
         </is>
       </c>
       <c r="C1782">
-        <v>0.03221409253786779</v>
+        <v>0.03221409253786778</v>
       </c>
       <c r="D1782">
         <v>0.7328462991546817</v>
@@ -34430,7 +34430,7 @@
         </is>
       </c>
       <c r="C1793">
-        <v>0.04836505610578532</v>
+        <v>0.04836505610578531</v>
       </c>
       <c r="D1793">
         <v>0.5468960570714865</v>
@@ -34471,7 +34471,7 @@
         <v>0.0862223904852536</v>
       </c>
       <c r="D1795">
-        <v>0.6194514159469206</v>
+        <v>0.6194514159469205</v>
       </c>
       <c r="E1795">
         <v>0.5651768839196503</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="C1796">
-        <v>0.07667160261611782</v>
+        <v>0.07667160261611781</v>
       </c>
       <c r="D1796">
         <v>0.6743677312408632</v>
@@ -34550,7 +34550,7 @@
         <v>0.481204334761697</v>
       </c>
       <c r="E1799">
-        <v>0.4066379931380088</v>
+        <v>0.4066379931380087</v>
       </c>
     </row>
     <row r="1800">
@@ -34569,7 +34569,7 @@
         <v>0.6057529249362222</v>
       </c>
       <c r="E1800">
-        <v>0.5413783470052112</v>
+        <v>0.5413783470052111</v>
       </c>
     </row>
     <row r="1801">
@@ -34737,7 +34737,7 @@
         <v>0.09669745216948027</v>
       </c>
       <c r="D1809">
-        <v>0.4382369267053246</v>
+        <v>0.4382369267053245</v>
       </c>
       <c r="E1809">
         <v>0.3871700645700852</v>
@@ -34987,7 +34987,7 @@
         <v>0.4290860979010693</v>
       </c>
       <c r="E1822">
-        <v>0.3933240547470721</v>
+        <v>0.393324054747072</v>
       </c>
     </row>
     <row r="1823">
@@ -35044,7 +35044,7 @@
         <v>0.4798194217254555</v>
       </c>
       <c r="E1825">
-        <v>0.4134308924835805</v>
+        <v>0.4134308924835804</v>
       </c>
     </row>
     <row r="1826">
@@ -35120,7 +35120,7 @@
         <v>0.6493191464485291</v>
       </c>
       <c r="E1829">
-        <v>0.6233619268396397</v>
+        <v>0.6233619268396396</v>
       </c>
     </row>
     <row r="1830">
@@ -35215,7 +35215,7 @@
         <v>0.7837431560780891</v>
       </c>
       <c r="E1834">
-        <v>0.7137859325976697</v>
+        <v>0.7137859325976696</v>
       </c>
     </row>
     <row r="1835">
@@ -35345,7 +35345,7 @@
         <v>0.1238288208419534</v>
       </c>
       <c r="D1841">
-        <v>0.6485975753656929</v>
+        <v>0.6485975753656928</v>
       </c>
       <c r="E1841">
         <v>0.5872339491047769</v>
@@ -35608,7 +35608,7 @@
         </is>
       </c>
       <c r="C1855">
-        <v>0.07185796122363077</v>
+        <v>0.07185796122363076</v>
       </c>
       <c r="D1855">
         <v>0.6392534148150608</v>
@@ -35665,7 +35665,7 @@
         </is>
       </c>
       <c r="C1858">
-        <v>0.06041590301776501</v>
+        <v>0.060415903017765</v>
       </c>
       <c r="D1858">
         <v>0.7502708838238393</v>
@@ -35823,7 +35823,7 @@
         <v>0.6001023724694914</v>
       </c>
       <c r="E1866">
-        <v>0.5381321771062279</v>
+        <v>0.5381321771062278</v>
       </c>
     </row>
     <row r="1867">
@@ -35975,7 +35975,7 @@
         <v>0.6076858046777327</v>
       </c>
       <c r="E1874">
-        <v>0.5341471799720508</v>
+        <v>0.5341471799720507</v>
       </c>
     </row>
     <row r="1875">
@@ -36048,7 +36048,7 @@
         <v>0.08758740371003973</v>
       </c>
       <c r="D1878">
-        <v>0.6866605716036967</v>
+        <v>0.6866605716036966</v>
       </c>
       <c r="E1878">
         <v>0.6288061157675409</v>
@@ -36260,7 +36260,7 @@
         <v>0.6868367191030204</v>
       </c>
       <c r="E1889">
-        <v>0.6105101532584794</v>
+        <v>0.6105101532584793</v>
       </c>
     </row>
     <row r="1890">
@@ -36450,7 +36450,7 @@
         <v>0.5436333156460513</v>
       </c>
       <c r="E1899">
-        <v>0.5120496285727531</v>
+        <v>0.512049628572753</v>
       </c>
     </row>
     <row r="1900">
@@ -36678,7 +36678,7 @@
         <v>0.6698216751574484</v>
       </c>
       <c r="E1911">
-        <v>0.6060671214380518</v>
+        <v>0.6060671214380517</v>
       </c>
     </row>
     <row r="1912">
@@ -37020,7 +37020,7 @@
         <v>0.6396202436858925</v>
       </c>
       <c r="E1929">
-        <v>0.6005281422126974</v>
+        <v>0.6005281422126973</v>
       </c>
     </row>
     <row r="1930">
@@ -37036,7 +37036,7 @@
         <v>0.04718296695285332</v>
       </c>
       <c r="D1930">
-        <v>0.6343779096681002</v>
+        <v>0.6343779096681001</v>
       </c>
       <c r="E1930">
         <v>0.6049782365500579</v>
@@ -37416,10 +37416,10 @@
         <v>0</v>
       </c>
       <c r="D1950">
-        <v>0.6398591710093911</v>
+        <v>0.639859171009391</v>
       </c>
       <c r="E1950">
-        <v>0.6402984554060524</v>
+        <v>0.6402984554060523</v>
       </c>
     </row>
     <row r="1951">
@@ -37622,7 +37622,7 @@
         </is>
       </c>
       <c r="C1961">
-        <v>0.04274721407532958</v>
+        <v>0.04274721407532957</v>
       </c>
       <c r="D1961">
         <v>0.6385895447154267</v>
@@ -37742,7 +37742,7 @@
         <v>0.7875320764136676</v>
       </c>
       <c r="E1967">
-        <v>0.7757248855679984</v>
+        <v>0.7757248855679983</v>
       </c>
     </row>
     <row r="1968">
@@ -37799,7 +37799,7 @@
         <v>0.584112252310492</v>
       </c>
       <c r="E1970">
-        <v>0.543356705376904</v>
+        <v>0.5433567053769039</v>
       </c>
     </row>
     <row r="1971">
@@ -37932,7 +37932,7 @@
         <v>0.6570685662689115</v>
       </c>
       <c r="E1977">
-        <v>0.5909765166980892</v>
+        <v>0.5909765166980891</v>
       </c>
     </row>
     <row r="1978">
@@ -38062,7 +38062,7 @@
         <v>0</v>
       </c>
       <c r="D1984">
-        <v>0.6249134768166526</v>
+        <v>0.6249134768166525</v>
       </c>
       <c r="E1984">
         <v>0.6223568144642373</v>
@@ -38078,7 +38078,7 @@
         </is>
       </c>
       <c r="C1985">
-        <v>0.06825345953439981</v>
+        <v>0.0682534595343998</v>
       </c>
       <c r="D1985">
         <v>0.6509261102580064</v>
@@ -38116,7 +38116,7 @@
         </is>
       </c>
       <c r="C1987">
-        <v>0.07469360757069903</v>
+        <v>0.07469360757069902</v>
       </c>
       <c r="D1987">
         <v>0.6146820048679004</v>
@@ -38157,7 +38157,7 @@
         <v>0.1214045647083011</v>
       </c>
       <c r="D1989">
-        <v>0.5163234684429801</v>
+        <v>0.51632346844298</v>
       </c>
       <c r="E1989">
         <v>0.4531926480593469</v>
@@ -38388,7 +38388,7 @@
         <v>0.6175499883537845</v>
       </c>
       <c r="E2001">
-        <v>0.5650246138783494</v>
+        <v>0.5650246138783493</v>
       </c>
     </row>
     <row r="2002">
@@ -38458,13 +38458,13 @@
         </is>
       </c>
       <c r="C2005">
-        <v>0.0460504515718773</v>
+        <v>0.04605045157187729</v>
       </c>
       <c r="D2005">
         <v>0.697864069794318</v>
       </c>
       <c r="E2005">
-        <v>0.6642195411152077</v>
+        <v>0.6642195411152076</v>
       </c>
     </row>
     <row r="2006">
@@ -38556,7 +38556,7 @@
         <v>0.0878179992375894</v>
       </c>
       <c r="D2010">
-        <v>0.6630973101124305</v>
+        <v>0.6630973101124304</v>
       </c>
       <c r="E2010">
         <v>0.6070823130026058</v>
@@ -38575,7 +38575,7 @@
         <v>0.05677039275746185</v>
       </c>
       <c r="D2011">
-        <v>0.6742719747634463</v>
+        <v>0.6742719747634462</v>
       </c>
       <c r="E2011">
         <v>0.6351250851661118</v>
@@ -38689,7 +38689,7 @@
         <v>0.1059897704607985</v>
       </c>
       <c r="D2017">
-        <v>0.7150179048910214</v>
+        <v>0.7150179048910213</v>
       </c>
       <c r="E2017">
         <v>0.642096628525361</v>
@@ -38876,7 +38876,7 @@
         </is>
       </c>
       <c r="C2027">
-        <v>0.04443082442081967</v>
+        <v>0.04443082442081966</v>
       </c>
       <c r="D2027">
         <v>0.6382673480604915</v>
@@ -38958,7 +38958,7 @@
         <v>0.5260791998240982</v>
       </c>
       <c r="E2031">
-        <v>0.4766341239284656</v>
+        <v>0.4766341239284655</v>
       </c>
     </row>
     <row r="2032">
@@ -39085,7 +39085,7 @@
         </is>
       </c>
       <c r="C2038">
-        <v>0.09060075429309313</v>
+        <v>0.09060075429309312</v>
       </c>
       <c r="D2038">
         <v>0.5595087369643857</v>
@@ -39205,7 +39205,7 @@
         <v>0.6043805528093048</v>
       </c>
       <c r="E2044">
-        <v>0.5448869326993469</v>
+        <v>0.5448869326993468</v>
       </c>
     </row>
     <row r="2045">
@@ -39224,7 +39224,7 @@
         <v>0.5780089723516125</v>
       </c>
       <c r="E2045">
-        <v>0.512018878521523</v>
+        <v>0.5120188785215229</v>
       </c>
     </row>
     <row r="2046">
@@ -39278,7 +39278,7 @@
         <v>0.1096238660908521</v>
       </c>
       <c r="D2048">
-        <v>0.5636951367860013</v>
+        <v>0.5636951367860012</v>
       </c>
       <c r="E2048">
         <v>0.5016296366749923</v>
@@ -39370,7 +39370,7 @@
         </is>
       </c>
       <c r="C2053">
-        <v>0.08858004031280276</v>
+        <v>0.08858004031280275</v>
       </c>
       <c r="D2053">
         <v>0.6105179661464344</v>
@@ -39829,7 +39829,7 @@
         <v>0.04881367450737666</v>
       </c>
       <c r="D2077">
-        <v>0.6719700845337207</v>
+        <v>0.6719700845337206</v>
       </c>
       <c r="E2077">
         <v>0.6397030809386952</v>
@@ -39908,7 +39908,7 @@
         <v>0.7178776786390042</v>
       </c>
       <c r="E2081">
-        <v>0.7046631500068114</v>
+        <v>0.7046631500068113</v>
       </c>
     </row>
     <row r="2082">
@@ -40041,7 +40041,7 @@
         <v>0.4934410183052531</v>
       </c>
       <c r="E2088">
-        <v>0.4339823381300541</v>
+        <v>0.433982338130054</v>
       </c>
     </row>
     <row r="2089">
@@ -40114,7 +40114,7 @@
         <v>0.05614780787608887</v>
       </c>
       <c r="D2092">
-        <v>0.6398403077689882</v>
+        <v>0.6398403077689881</v>
       </c>
       <c r="E2092">
         <v>0.6070673189090687</v>
@@ -40152,7 +40152,7 @@
         <v>0.08870936507931891</v>
       </c>
       <c r="D2094">
-        <v>0.4773261054374478</v>
+        <v>0.4773261054374477</v>
       </c>
       <c r="E2094">
         <v>0.4179226788796676</v>
@@ -40684,7 +40684,7 @@
         <v>0.06951871657754011</v>
       </c>
       <c r="D2122">
-        <v>0.7391304347826087</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="E2122">
         <v>0.6877470355731226</v>
@@ -40725,7 +40725,7 @@
         <v>0.6755555555555556</v>
       </c>
       <c r="E2124">
-        <v>0.6237037037037037</v>
+        <v>0.6237037037037036</v>
       </c>
     </row>
     <row r="2125">
@@ -40814,7 +40814,7 @@
         </is>
       </c>
       <c r="C2129">
-        <v>0.1603375527426161</v>
+        <v>0.160337552742616</v>
       </c>
       <c r="D2129">
         <v>0.462890625</v>
@@ -40915,7 +40915,7 @@
         <v>0.5677261613691932</v>
       </c>
       <c r="E2134">
-        <v>0.508557457212714</v>
+        <v>0.5085574572127139</v>
       </c>
     </row>
     <row r="2135">
@@ -41048,7 +41048,7 @@
         <v>0.6752941176470588</v>
       </c>
       <c r="E2141">
-        <v>0.6258823529411765</v>
+        <v>0.6258823529411764</v>
       </c>
     </row>
     <row r="2142">
@@ -41086,7 +41086,7 @@
         <v>0.6777777777777778</v>
       </c>
       <c r="E2143">
-        <v>0.6422222222222223</v>
+        <v>0.6422222222222222</v>
       </c>
     </row>
     <row r="2144">
@@ -41105,7 +41105,7 @@
         <v>0.6698762035763411</v>
       </c>
       <c r="E2144">
-        <v>0.6244841815680881</v>
+        <v>0.624484181568088</v>
       </c>
     </row>
     <row r="2145">
@@ -41349,7 +41349,7 @@
         <v>0.12109375</v>
       </c>
       <c r="D2157">
-        <v>0.661498708010336</v>
+        <v>0.6614987080103359</v>
       </c>
       <c r="E2157">
         <v>0.5813953488372093</v>
@@ -41672,7 +41672,7 @@
         <v>0.1776315789473684</v>
       </c>
       <c r="D2174">
-        <v>0.6178861788617887</v>
+        <v>0.6178861788617886</v>
       </c>
       <c r="E2174">
         <v>0.5081300813008131</v>
@@ -41694,7 +41694,7 @@
         <v>0.654601226993865</v>
       </c>
       <c r="E2175">
-        <v>0.6012269938650307</v>
+        <v>0.6012269938650306</v>
       </c>
     </row>
     <row r="2176">
@@ -41713,7 +41713,7 @@
         <v>0.600511073253833</v>
       </c>
       <c r="E2176">
-        <v>0.5442930153321977</v>
+        <v>0.5442930153321976</v>
       </c>
     </row>
     <row r="2177">
@@ -41729,7 +41729,7 @@
         <v>0.1164742917103882</v>
       </c>
       <c r="D2177">
-        <v>0.5803897685749087</v>
+        <v>0.5803897685749086</v>
       </c>
       <c r="E2177">
         <v>0.51278928136419</v>
